--- a/Green-Index-Tabeau.xlsx
+++ b/Green-Index-Tabeau.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nastia/Weiterbildung-2025/green-index/data_subindex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nastia/Weiterbildung-2025/green-index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F00ABE4F-D1D0-EA4B-BEC8-842B122ED3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70E1525-B5A6-7F4C-A692-4477340F5A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15740" xr2:uid="{D7D19EB4-FA1E-3848-B95D-0A06C344544C}"/>
+    <workbookView xWindow="-5160" yWindow="-19400" windowWidth="33740" windowHeight="18120" xr2:uid="{D7D19EB4-FA1E-3848-B95D-0A06C344544C}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="1" r:id="rId1"/>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FB9E19-C06C-3049-A8B1-5092FE5717C6}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
